--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t> </t>
   </si>
@@ -44,7 +44,7 @@
     <t>bids@cagconcrete.com</t>
   </si>
   <si>
-    <t>WEEK OF MAY 25, 2025</t>
+    <t>WEEK OF JUNE 1, 2025</t>
   </si>
   <si>
     <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, VICTOR SUAREZ</t>
@@ -59,47 +59,54 @@
     <t>CONCRETE</t>
   </si>
   <si>
-    <t>SUNDAY 05/25</t>
-  </si>
-  <si>
-    <t>MONDAY 05/26</t>
-  </si>
-  <si>
-    <t>TUESDAY 05/27</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 05/28</t>
-  </si>
-  <si>
-    <t>THURSDAY 05/29</t>
-  </si>
-  <si>
-    <t>FRIDAY 05/30</t>
-  </si>
-  <si>
-    <t>SATURDAY 05/31</t>
+    <t>SUNDAY 06/01</t>
+  </si>
+  <si>
+    <t>MONDAY 06/02</t>
+  </si>
+  <si>
+    <t>TUESDAY 06/03</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 06/04</t>
+  </si>
+  <si>
+    <t>THURSDAY 06/05</t>
+  </si>
+  <si>
+    <t>FRIDAY 06/06</t>
+  </si>
+  <si>
+    <t>SATURDAY 06/07</t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>BP02021 - SR 13 RESURFACING</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>ERNST</t>
+    <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>CONCRETE ENTERPRISES</t>
   </si>
   <si>
     <t>NEED CREW
-0+</t>
-  </si>
-  <si>
-    <t>COLD40007 - DAMASCUS ROAD AT UPPER BETHANT ROAD</t>
-  </si>
-  <si>
-    <t>WAYNESBORO</t>
+(10:30 am, 10+)</t>
+  </si>
+  <si>
+    <t>ERS05031 - SR 59 BRIDGE REPLACEMENT</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>NEED CREW
+10+</t>
   </si>
 </sst>
 </file>
@@ -938,40 +945,44 @@
       <c r="J13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="19"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t> </t>
   </si>
@@ -44,7 +44,7 @@
     <t>bids@cagconcrete.com</t>
   </si>
   <si>
-    <t>WEEK OF JUNE 1, 2025</t>
+    <t>WEEK OF MAY 26, 2025</t>
   </si>
   <si>
     <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, VICTOR SUAREZ</t>
@@ -59,28 +59,47 @@
     <t>CONCRETE</t>
   </si>
   <si>
+    <t>MONDAY 05/26</t>
+  </si>
+  <si>
+    <t>TUESDAY 05/27</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 05/28</t>
+  </si>
+  <si>
+    <t>THURSDAY 05/29</t>
+  </si>
+  <si>
+    <t>FRIDAY 05/30</t>
+  </si>
+  <si>
+    <t>SATURDAY 05/31</t>
+  </si>
+  <si>
     <t>SUNDAY 06/01</t>
   </si>
   <si>
-    <t>MONDAY 06/02</t>
-  </si>
-  <si>
-    <t>TUESDAY 06/03</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 06/04</t>
-  </si>
-  <si>
-    <t>THURSDAY 06/05</t>
-  </si>
-  <si>
-    <t>FRIDAY 06/06</t>
-  </si>
-  <si>
-    <t>SATURDAY 06/07</t>
-  </si>
-  <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>BP02021 - SR 13 RESURFACING</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ERNST</t>
+  </si>
+  <si>
+    <t>NEED CREW
+0+</t>
+  </si>
+  <si>
+    <t>COLD40007 - DAMASCUS ROAD AT UPPER BETHANT ROAD</t>
+  </si>
+  <si>
+    <t>WAYNESBORO</t>
   </si>
   <si>
     <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
@@ -107,6 +126,30 @@
   <si>
     <t>NEED CREW
 10+</t>
+  </si>
+  <si>
+    <t>WEEK OF JUNE 2, 2025</t>
+  </si>
+  <si>
+    <t>MONDAY 06/02</t>
+  </si>
+  <si>
+    <t>TUESDAY 06/03</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 06/04</t>
+  </si>
+  <si>
+    <t>THURSDAY 06/05</t>
+  </si>
+  <si>
+    <t>FRIDAY 06/06</t>
+  </si>
+  <si>
+    <t>SATURDAY 06/07</t>
+  </si>
+  <si>
+    <t>SUNDAY 06/08</t>
   </si>
 </sst>
 </file>
@@ -656,17 +699,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" showGridLines="false" showRowColHeaders="1" topLeftCell="A1">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" showGridLines="false" showRowColHeaders="1" topLeftCell="C1">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="46.69" customWidth="true" style="1"/>
     <col min="2" max="2" width="46.69" customWidth="true" style="1"/>
-    <col min="3" max="3" width="46.69" customWidth="true" style="1"/>
+    <col min="3" max="3" width="30.38" customWidth="true" style="1"/>
     <col min="4" max="4" width="24.64" customWidth="true" style="1"/>
     <col min="5" max="5" width="24.64" customWidth="true" style="1"/>
     <col min="6" max="6" width="24.64" customWidth="true" style="1"/>
@@ -674,7 +717,7 @@
     <col min="8" max="8" width="24.64" customWidth="true" style="1"/>
     <col min="9" max="9" width="24.64" customWidth="true" style="1"/>
     <col min="10" max="10" width="24.64" customWidth="true" style="1"/>
-    <col min="11" max="11" width="59.65" customWidth="true" style="1"/>
+    <col min="11" max="11" width="31.86" customWidth="true" style="1"/>
     <col min="12" max="12" width="29.66" customWidth="true" style="1"/>
     <col min="13" max="13" width="13.5" customWidth="true" style="1"/>
   </cols>
@@ -942,46 +985,215 @@
       <c r="I13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="19" t="s">
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="19" t="s">
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="C22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19" t="s">
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -994,6 +1206,8 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId_hyperlink_1"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>WEEK OF MAY 26, 2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>WEEK OF JUNE 30, 2025</t>
   </si>
   <si>
     <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, VICTOR SUAREZ</t>
@@ -32,97 +32,66 @@
     <t>CONCRETE</t>
   </si>
   <si>
-    <t>MONDAY 05/26</t>
-  </si>
-  <si>
-    <t>TUESDAY 05/27</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 05/28</t>
-  </si>
-  <si>
-    <t>THURSDAY 05/29</t>
-  </si>
-  <si>
-    <t>FRIDAY 05/30</t>
-  </si>
-  <si>
-    <t>SATURDAY 05/31</t>
-  </si>
-  <si>
-    <t>SUNDAY 06/01</t>
+    <t>MONDAY 06/30</t>
+  </si>
+  <si>
+    <t>TUESDAY 07/01</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 07/02</t>
+  </si>
+  <si>
+    <t>THURSDAY 07/03</t>
+  </si>
+  <si>
+    <t>FRIDAY 07/04</t>
+  </si>
+  <si>
+    <t>SATURDAY 07/05</t>
+  </si>
+  <si>
+    <t>SUNDAY 07/06</t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>BP02021 - SR 13 RESURFACING</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>ERNST</t>
+    <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>CONCRETE ENTERPRISES</t>
+  </si>
+  <si>
+    <t>NEED CREW
+(10:30 am, 10+)</t>
+  </si>
+  <si>
+    <t>4TH OF JULY</t>
+  </si>
+  <si>
+    <t>ERS05070 - Hall, White Sulphur Road</t>
+  </si>
+  <si>
+    <t>Jenkis</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
   </si>
   <si>
     <t>NEED CREW
 0+</t>
   </si>
   <si>
-    <t>COLD40007 - DAMASCUS ROAD AT UPPER BETHANT ROAD</t>
-  </si>
-  <si>
-    <t>WAYNESBORO</t>
-  </si>
-  <si>
-    <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>CONCRETE ENTERPRISES</t>
-  </si>
-  <si>
-    <t>NEED CREW
-(10:30 am, 10+)</t>
-  </si>
-  <si>
-    <t>ERS05031 - SR 59 BRIDGE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>NEED CREW
-10+</t>
-  </si>
-  <si>
-    <t>WEEK OF JUNE 2, 2025</t>
-  </si>
-  <si>
-    <t>MONDAY 06/02</t>
-  </si>
-  <si>
-    <t>TUESDAY 06/03</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 06/04</t>
-  </si>
-  <si>
-    <t>THURSDAY 06/05</t>
-  </si>
-  <si>
-    <t>FRIDAY 06/06</t>
-  </si>
-  <si>
-    <t>SATURDAY 06/07</t>
-  </si>
-  <si>
-    <t>SUNDAY 06/08</t>
+    <t xml:space="preserve">PC25032 - SR 15 </t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>FOWLER</t>
   </si>
 </sst>
 </file>
@@ -130,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -167,8 +136,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +165,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -252,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,7 +266,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,7 +524,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" showGridLines="false" showRowColHeaders="1" topLeftCell="A1">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -623,234 +619,78 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="1048568" spans="1:13" customHeight="1" ht="12.8"/>
     <row r="1048569" spans="1:13" customHeight="1" ht="12.8"/>
@@ -865,8 +705,6 @@
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362205" footer="0.51181102362205"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,23 +15,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>WEEK OF JUNE 23, 2025</t>
+  </si>
+  <si>
+    <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, VICTOR SUAREZ</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>CONCRETE</t>
+  </si>
+  <si>
+    <t>MONDAY 06/23</t>
+  </si>
+  <si>
+    <t>TUESDAY 06/24</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 06/25</t>
+  </si>
+  <si>
+    <t>THURSDAY 06/26</t>
+  </si>
+  <si>
+    <t>FRIDAY 06/27</t>
+  </si>
+  <si>
+    <t>SATURDAY 06/28</t>
+  </si>
+  <si>
+    <t>SUNDAY 06/29</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
   <si>
     <t>WEEK OF JUNE 30, 2025</t>
   </si>
   <si>
-    <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, VICTOR SUAREZ</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>WORK</t>
-  </si>
-  <si>
-    <t>CONCRETE</t>
-  </si>
-  <si>
     <t>MONDAY 06/30</t>
   </si>
   <si>
@@ -51,9 +78,6 @@
   </si>
   <si>
     <t>SUNDAY 07/06</t>
-  </si>
-  <si>
-    <t>NOTES</t>
   </si>
   <si>
     <t>CWM04066 - CONSTRUCTION OF A ROUNDABOUT ON SR 18 @ JACKSON LAKE RD/SNAPPING SHOALS ROAD</t>
@@ -70,6 +94,23 @@
   </si>
   <si>
     <t>4TH OF JULY</t>
+  </si>
+  <si>
+    <t>ERS05031 - SR 59 BRIDGE REPLACEMENT</t>
+  </si>
+  <si>
+    <t>Prueba Lead</t>
+  </si>
+  <si>
+    <t>ARGOS</t>
+  </si>
+  <si>
+    <t>Cruz Cortez
+(10:00 am, 5+)</t>
+  </si>
+  <si>
+    <t>NEED CREW
+(10:00 am, 5+)</t>
   </si>
   <si>
     <t>ERS05070 - Hall, White Sulphur Road</t>
@@ -524,7 +565,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" showGridLines="false" showRowColHeaders="1" topLeftCell="A1">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,88 +650,184 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11" t="s">
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="1048568" spans="1:13" customHeight="1" ht="12.8"/>
     <row r="1048569" spans="1:13" customHeight="1" ht="12.8"/>
@@ -705,6 +842,8 @@
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362205" footer="0.51181102362205"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>WEEK OF JUNE 23, 2025</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>CONCRETE ENTERPRISES</t>
+  </si>
+  <si>
+    <t>Carlos Arroyo
+(10:30 am, 10+)</t>
   </si>
   <si>
     <t>NEED CREW
@@ -730,13 +734,13 @@
         <v>24</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -746,57 +750,57 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -804,26 +808,26 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -90,7 +90,7 @@
   </si>
   <si>
     <t>Abram Sanchez
-+1
+Alfredo Chegue
 (10:30 am, 10+)</t>
   </si>
   <si>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
-  <si>
-    <t>WEEK OF JUNE 23, 2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>WEEK OF JULY 28, 2025</t>
   </si>
   <si>
     <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, LUIS G.CORDOVA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, GERARDO ALVARADO</t>
@@ -32,112 +32,73 @@
     <t>CONCRETE</t>
   </si>
   <si>
-    <t>MONDAY 06/23</t>
-  </si>
-  <si>
-    <t>TUESDAY 06/24</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 06/25</t>
-  </si>
-  <si>
-    <t>THURSDAY 06/26</t>
-  </si>
-  <si>
-    <t>FRIDAY 06/27</t>
-  </si>
-  <si>
-    <t>SATURDAY 06/28</t>
-  </si>
-  <si>
-    <t>SUNDAY 06/29</t>
+    <t>MONDAY 07/28</t>
+  </si>
+  <si>
+    <t>TUESDAY 07/29</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 07/30</t>
+  </si>
+  <si>
+    <t>THURSDAY 07/31</t>
+  </si>
+  <si>
+    <t>FRIDAY 08/01</t>
+  </si>
+  <si>
+    <t>SATURDAY 08/02</t>
+  </si>
+  <si>
+    <t>SUNDAY 08/03</t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>WEEK OF JUNE 30, 2025</t>
-  </si>
-  <si>
-    <t>MONDAY 06/30</t>
-  </si>
-  <si>
-    <t>TUESDAY 07/01</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 07/02</t>
-  </si>
-  <si>
-    <t>THURSDAY 07/03</t>
-  </si>
-  <si>
-    <t>FRIDAY 07/04</t>
-  </si>
-  <si>
-    <t>SATURDAY 07/05</t>
-  </si>
-  <si>
-    <t>SUNDAY 07/06</t>
-  </si>
-  <si>
-    <t>CWM04066 - HENRY</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>CONCRETE ENTERPRISES</t>
+    <t>EDG45000 - LAURENS</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>Abram Sanchez
+(12:30 am, 10+)</t>
+  </si>
+  <si>
+    <t>PC25032 - GREENE</t>
   </si>
   <si>
     <t>Abram Sanchez
 Alfredo Chegue
-(10:30 am, 10+)</t>
-  </si>
-  <si>
-    <t>NEED CREW
-(10:30 am, 10+)</t>
-  </si>
-  <si>
-    <t>4TH OF JULY</t>
-  </si>
-  <si>
-    <t>ERS05031 - FRANKLIN</t>
-  </si>
-  <si>
-    <t>Prueba Lead</t>
-  </si>
-  <si>
-    <t>ARGOS</t>
-  </si>
-  <si>
-    <t>Cruz Cortez
-(10:00 am, 5+)</t>
-  </si>
-  <si>
-    <t>NEED CREW
-(10:00 am, 5+)</t>
-  </si>
-  <si>
-    <t>ERS05070 - Hall</t>
-  </si>
-  <si>
-    <t>Jenkis</t>
-  </si>
-  <si>
-    <t>MORGAN</t>
-  </si>
-  <si>
-    <t>NEED CREW
-0+</t>
-  </si>
-  <si>
-    <t>PC25032 - GREENE</t>
-  </si>
-  <si>
-    <t>Deploy</t>
-  </si>
-  <si>
-    <t>FOWLER</t>
+(1:00 am, 10+)</t>
+  </si>
+  <si>
+    <t>WEEK OF AUGUST 4, 2025</t>
+  </si>
+  <si>
+    <t>MONDAY 08/04</t>
+  </si>
+  <si>
+    <t>TUESDAY 08/05</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 08/06</t>
+  </si>
+  <si>
+    <t>THURSDAY 08/07</t>
+  </si>
+  <si>
+    <t>FRIDAY 08/08</t>
+  </si>
+  <si>
+    <t>SATURDAY 08/09</t>
+  </si>
+  <si>
+    <t>SUNDAY 08/10</t>
   </si>
 </sst>
 </file>
@@ -282,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,10 +278,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,183 +612,177 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="9"/>
     </row>
     <row r="1048568" spans="1:13" customHeight="1" ht="12.8"/>
@@ -847,8 +798,8 @@
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362205" footer="0.51181102362205"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>WEEK OF JULY 28, 2025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>WEEK OF SEPTEMBER 29, 2025</t>
   </si>
   <si>
     <t>CREW LEADS: CARLOS ARROYO, CRUZ CORTEZ, FRANCISCO GUTIERREZ, JOSE DUARTE, JULIAN BAUTISTA, LUIS G.CORDOVA, MIGUEL MURILLO, VICTOR CORDOVA, VICTOR SORIANO, GERARDO ALVARADO</t>
@@ -32,73 +32,65 @@
     <t>CONCRETE</t>
   </si>
   <si>
-    <t>MONDAY 07/28</t>
-  </si>
-  <si>
-    <t>TUESDAY 07/29</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 07/30</t>
-  </si>
-  <si>
-    <t>THURSDAY 07/31</t>
-  </si>
-  <si>
-    <t>FRIDAY 08/01</t>
-  </si>
-  <si>
-    <t>SATURDAY 08/02</t>
-  </si>
-  <si>
-    <t>SUNDAY 08/03</t>
+    <t>MONDAY 09/29</t>
+  </si>
+  <si>
+    <t>TUESDAY 09/30</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 10/01</t>
+  </si>
+  <si>
+    <t>THURSDAY 10/02</t>
+  </si>
+  <si>
+    <t>FRIDAY 10/03</t>
+  </si>
+  <si>
+    <t>SATURDAY 10/04</t>
+  </si>
+  <si>
+    <t>SUNDAY 10/05</t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>EDG45000 - LAURENS</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>BASIC</t>
-  </si>
-  <si>
-    <t>Abram Sanchez
-(12:30 am, 10+)</t>
-  </si>
-  <si>
-    <t>PC25032 - GREENE</t>
-  </si>
-  <si>
-    <t>Abram Sanchez
-Alfredo Chegue
-(1:00 am, 10+)</t>
-  </si>
-  <si>
-    <t>WEEK OF AUGUST 4, 2025</t>
-  </si>
-  <si>
-    <t>MONDAY 08/04</t>
-  </si>
-  <si>
-    <t>TUESDAY 08/05</t>
-  </si>
-  <si>
-    <t>WEDNESDAY 08/06</t>
-  </si>
-  <si>
-    <t>THURSDAY 08/07</t>
-  </si>
-  <si>
-    <t>FRIDAY 08/08</t>
-  </si>
-  <si>
-    <t>SATURDAY 08/09</t>
-  </si>
-  <si>
-    <t>SUNDAY 08/10</t>
+    <t>ERS05070 - Hall</t>
+  </si>
+  <si>
+    <t>Jenkis</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
+  </si>
+  <si>
+    <t>NEED CREW
+0+</t>
+  </si>
+  <si>
+    <t>WEEK OF OCTOBER 6, 2025</t>
+  </si>
+  <si>
+    <t>MONDAY 10/06</t>
+  </si>
+  <si>
+    <t>TUESDAY 10/07</t>
+  </si>
+  <si>
+    <t>WEDNESDAY 10/08</t>
+  </si>
+  <si>
+    <t>THURSDAY 10/09</t>
+  </si>
+  <si>
+    <t>FRIDAY 10/10</t>
+  </si>
+  <si>
+    <t>SATURDAY 10/11</t>
+  </si>
+  <si>
+    <t>SUNDAY 10/12</t>
   </si>
 </sst>
 </file>
@@ -277,11 +269,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,7 +519,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" showGridLines="false" showRowColHeaders="1" topLeftCell="A1">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,45 +614,43 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -674,116 +664,39 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="9"/>
     </row>
     <row r="1048568" spans="1:13" customHeight="1" ht="12.8"/>
     <row r="1048569" spans="1:13" customHeight="1" ht="12.8"/>
@@ -798,8 +711,8 @@
   <mergeCells>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362205" footer="0.51181102362205"/>

--- a/public/uploads/excel/schedule.xlsx
+++ b/public/uploads/excel/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>WEEK OF SEPTEMBER 29, 2025</t>
   </si>
@@ -67,6 +67,10 @@
   <si>
     <t>NEED CREW
 0+</t>
+  </si>
+  <si>
+    <t>NEED CREW
+(1:00 am, 0+)</t>
   </si>
   <si>
     <t>WEEK OF OCTOBER 6, 2025</t>
@@ -621,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>16</v>
@@ -635,7 +639,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -674,25 +678,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>12</v>
